--- a/rai/rai_df.xlsx
+++ b/rai/rai_df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3404"/>
+  <dimension ref="A1:C3418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37884,6 +37884,160 @@
         <v>-0.2529</v>
       </c>
     </row>
+    <row r="3405">
+      <c r="A3405" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B3405" t="n">
+        <v>-0.6123</v>
+      </c>
+      <c r="C3405" t="n">
+        <v>-0.2529</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B3406" t="n">
+        <v>-0.6123</v>
+      </c>
+      <c r="C3406" t="n">
+        <v>-0.2529</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B3407" t="n">
+        <v>-0.7441</v>
+      </c>
+      <c r="C3407" t="n">
+        <v>-0.2717</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B3408" t="n">
+        <v>-0.8142</v>
+      </c>
+      <c r="C3408" t="n">
+        <v>-0.3099</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B3409" t="n">
+        <v>-0.8804</v>
+      </c>
+      <c r="C3409" t="n">
+        <v>-0.4332</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B3410" t="n">
+        <v>-0.7199</v>
+      </c>
+      <c r="C3410" t="n">
+        <v>-0.3328</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B3411" t="n">
+        <v>-0.4712</v>
+      </c>
+      <c r="C3411" t="n">
+        <v>-0.1519</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B3412" t="n">
+        <v>-0.4712</v>
+      </c>
+      <c r="C3412" t="n">
+        <v>-0.1519</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B3413" t="n">
+        <v>-0.4712</v>
+      </c>
+      <c r="C3413" t="n">
+        <v>-0.1519</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B3414" t="n">
+        <v>-0.4737</v>
+      </c>
+      <c r="C3414" t="n">
+        <v>-0.1229</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B3415" t="n">
+        <v>-0.4517</v>
+      </c>
+      <c r="C3415" t="n">
+        <v>-0.1426</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B3416" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="C3416" t="n">
+        <v>-0.1743</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B3417" t="n">
+        <v>-0.3227</v>
+      </c>
+      <c r="C3417" t="n">
+        <v>0.0319</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B3418" t="n">
+        <v>-0.2702</v>
+      </c>
+      <c r="C3418" t="n">
+        <v>0.0858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
